--- a/dev/reference/umberto7_results.xlsx
+++ b/dev/reference/umberto7_results.xlsx
@@ -52,9 +52,6 @@
     <t xml:space="preserve">T07: Centrifuge</t>
   </si>
   <si>
-    <t xml:space="preserve">T10: Effluent</t>
-  </si>
-  <si>
     <t xml:space="preserve">T11: Electricity WWTP (RER)</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">T51: Infrastructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T10: Effluent</t>
   </si>
   <si>
     <t xml:space="preserve">ReCiPe Midpoint (H) w/o LT - freshwater ecotoxicity w/o LT, FETPinf w/o LT</t>
@@ -525,10 +525,18 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
+      <c r="C5" t="n">
+        <v>12519.8251439651</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11693.8920091822</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13972.8254282623</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13311.854926336</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -538,16 +546,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>12519.8251439651</v>
+        <v>2601.68362199117</v>
       </c>
       <c r="D6" t="n">
-        <v>11693.8920091822</v>
+        <v>2556.03644785019</v>
       </c>
       <c r="E6" t="n">
-        <v>13972.8254282623</v>
+        <v>2665.89665928561</v>
       </c>
       <c r="F6" t="n">
-        <v>13311.854926336</v>
+        <v>2568.93068146238</v>
       </c>
     </row>
     <row r="7">
@@ -558,16 +566,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>2601.68362199117</v>
+        <v>1548.48234155781</v>
       </c>
       <c r="D7" t="n">
-        <v>2556.03644785019</v>
+        <v>2015.93887819947</v>
       </c>
       <c r="E7" t="n">
-        <v>2665.89665928561</v>
+        <v>2264.20109853925</v>
       </c>
       <c r="F7" t="n">
-        <v>2568.93068146238</v>
+        <v>2085.31465222362</v>
       </c>
     </row>
     <row r="8">
@@ -578,16 +586,16 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>1548.48234155781</v>
+        <v>806.721535889044</v>
       </c>
       <c r="D8" t="n">
-        <v>2015.93887819947</v>
+        <v>834.375548414071</v>
       </c>
       <c r="E8" t="n">
-        <v>2264.20109853925</v>
+        <v>822.799906189477</v>
       </c>
       <c r="F8" t="n">
-        <v>2085.31465222362</v>
+        <v>830.151470082453</v>
       </c>
     </row>
     <row r="9">
@@ -598,16 +606,16 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>806.721535889044</v>
+        <v>1381.50586007873</v>
       </c>
       <c r="D9" t="n">
-        <v>834.375548414071</v>
+        <v>1422.5158241703</v>
       </c>
       <c r="E9" t="n">
-        <v>822.799906189477</v>
+        <v>1443.27861775804</v>
       </c>
       <c r="F9" t="n">
-        <v>830.151470082453</v>
+        <v>1439.53069878981</v>
       </c>
     </row>
     <row r="10">
@@ -618,16 +626,16 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>1381.50586007873</v>
+        <v>6154.29854533961</v>
       </c>
       <c r="D10" t="n">
-        <v>1422.5158241703</v>
+        <v>6307.95566421315</v>
       </c>
       <c r="E10" t="n">
-        <v>1443.27861775804</v>
+        <v>6391.40849151713</v>
       </c>
       <c r="F10" t="n">
-        <v>1439.53069878981</v>
+        <v>6371.79507356329</v>
       </c>
     </row>
     <row r="11">
@@ -638,16 +646,16 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>6154.29854533961</v>
+        <v>-1262.37128862008</v>
       </c>
       <c r="D11" t="n">
-        <v>6307.95566421315</v>
+        <v>-1206.92394089208</v>
       </c>
       <c r="E11" t="n">
-        <v>6391.40849151713</v>
+        <v>-1196.96115446513</v>
       </c>
       <c r="F11" t="n">
-        <v>6371.79507356329</v>
+        <v>-1184.19963571212</v>
       </c>
     </row>
     <row r="12">
@@ -658,16 +666,16 @@
         <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>-1262.37128862008</v>
+        <v>-12697.2090784779</v>
       </c>
       <c r="D12" t="n">
-        <v>-1206.92394089208</v>
+        <v>-12457.2060899641</v>
       </c>
       <c r="E12" t="n">
-        <v>-1196.96115446513</v>
+        <v>-12595.8471348123</v>
       </c>
       <c r="F12" t="n">
-        <v>-1184.19963571212</v>
+        <v>-12443.3134911601</v>
       </c>
     </row>
     <row r="13">
@@ -678,16 +686,16 @@
         <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>-12697.2090784779</v>
+        <v>1683.10444997604</v>
       </c>
       <c r="D13" t="n">
-        <v>-12457.2060899641</v>
+        <v>1822.29286199503</v>
       </c>
       <c r="E13" t="n">
-        <v>-12595.8471348123</v>
+        <v>1875.37280630208</v>
       </c>
       <c r="F13" t="n">
-        <v>-12443.3134911601</v>
+        <v>1879.77216743399</v>
       </c>
     </row>
     <row r="14">
@@ -698,16 +706,16 @@
         <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>1683.10444997604</v>
+        <v>2134.28625613795</v>
       </c>
       <c r="D14" t="n">
-        <v>1822.29286199503</v>
+        <v>1778.32369701937</v>
       </c>
       <c r="E14" t="n">
-        <v>1875.37280630208</v>
+        <v>2199.35815832203</v>
       </c>
       <c r="F14" t="n">
-        <v>1879.77216743399</v>
+        <v>1585.32652841963</v>
       </c>
     </row>
     <row r="15">
@@ -717,18 +725,10 @@
       <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="n">
-        <v>2134.28625613795</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1778.32369701937</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2199.35815832203</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1585.32652841963</v>
-      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -769,67 +769,99 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.24035250961388</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.02658638466468</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.61641472003235</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.44534384643231</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+        <v>11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6733618047217</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.661547507510381</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.689981276172323</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.664884763563432</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.2657561734079</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.64786320890617</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.85079702970964</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.7045721631508</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.558291275926996</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.577429222851995</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.569418304858934</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.574505951343226</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>3.24035250961388</v>
+        <v>1.07261495364952</v>
       </c>
       <c r="D6" t="n">
-        <v>3.02658638466468</v>
+        <v>1.10445549953816</v>
       </c>
       <c r="E6" t="n">
-        <v>3.61641472003235</v>
+        <v>1.12057593993967</v>
       </c>
       <c r="F6" t="n">
-        <v>3.44534384643231</v>
+        <v>1.11766601820386</v>
       </c>
     </row>
     <row r="7">
@@ -837,19 +869,19 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6733618047217</v>
+        <v>0.20698253987675</v>
       </c>
       <c r="D7" t="n">
-        <v>0.661547507510381</v>
+        <v>0.212150365340576</v>
       </c>
       <c r="E7" t="n">
-        <v>0.689981276172323</v>
+        <v>0.214957066710036</v>
       </c>
       <c r="F7" t="n">
-        <v>0.664884763563432</v>
+        <v>0.214297424504862</v>
       </c>
     </row>
     <row r="8">
@@ -857,19 +889,19 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>1.2657561734079</v>
+        <v>-0.526010186170904</v>
       </c>
       <c r="D8" t="n">
-        <v>1.64786320890617</v>
+        <v>-0.502906151752494</v>
       </c>
       <c r="E8" t="n">
-        <v>1.85079702970964</v>
+        <v>-0.498754815936749</v>
       </c>
       <c r="F8" t="n">
-        <v>1.7045721631508</v>
+        <v>-0.493437292545961</v>
       </c>
     </row>
     <row r="9">
@@ -877,19 +909,19 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>0.558291275926996</v>
+        <v>-3.28626261384891</v>
       </c>
       <c r="D9" t="n">
-        <v>0.577429222851995</v>
+        <v>-3.22414558927366</v>
       </c>
       <c r="E9" t="n">
-        <v>0.569418304858934</v>
+        <v>-3.26002834741473</v>
       </c>
       <c r="F9" t="n">
-        <v>0.574505951343226</v>
+        <v>-3.22054993862504</v>
       </c>
     </row>
     <row r="10">
@@ -897,19 +929,19 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>1.07261495364952</v>
+        <v>0.883206532982471</v>
       </c>
       <c r="D10" t="n">
-        <v>1.10445549953816</v>
+        <v>0.956245443201245</v>
       </c>
       <c r="E10" t="n">
-        <v>1.12057593993967</v>
+        <v>0.984099064278064</v>
       </c>
       <c r="F10" t="n">
-        <v>1.11766601820386</v>
+        <v>0.986407622426495</v>
       </c>
     </row>
     <row r="11">
@@ -917,19 +949,19 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>0.20698253987675</v>
+        <v>0.92933593651589</v>
       </c>
       <c r="D11" t="n">
-        <v>0.212150365340576</v>
+        <v>0.774096065308692</v>
       </c>
       <c r="E11" t="n">
-        <v>0.214957066710036</v>
+        <v>0.957642396283453</v>
       </c>
       <c r="F11" t="n">
-        <v>0.214297424504862</v>
+        <v>0.690013086679882</v>
       </c>
     </row>
     <row r="12">
@@ -937,60 +969,36 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-0.526010186170904</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-0.502906151752494</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-0.498754815936749</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.493437292545961</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-3.28626261384891</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-3.22414558927366</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-3.26002834741473</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-3.22054993862504</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.883206532982471</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.956245443201245</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.984099064278064</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.986407622426495</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -999,18 +1007,10 @@
       <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.92933593651589</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.774096065308692</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.957642396283453</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.690013086679882</v>
-      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1051,55 +1051,79 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
+        <v>20</v>
+      </c>
+      <c r="C2" t="n">
+        <v>106.257190472376</v>
+      </c>
+      <c r="D2" t="n">
+        <v>53.1639836686905</v>
+      </c>
+      <c r="E2" t="n">
+        <v>32.2907562392375</v>
+      </c>
+      <c r="F2" t="n">
+        <v>16.1605509436292</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.20600648558233</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.12644621171655</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.3459707220046</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.28230092606611</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.250614308544646</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.246217219333773</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.256799805430227</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.247459291741663</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>106.257190472376</v>
+        <v>0.221422313221864</v>
       </c>
       <c r="D5" t="n">
-        <v>53.1639836686905</v>
+        <v>0.288265379426773</v>
       </c>
       <c r="E5" t="n">
-        <v>32.2907562392375</v>
+        <v>0.323765167598674</v>
       </c>
       <c r="F5" t="n">
-        <v>16.1605509436292</v>
+        <v>0.298185637445686</v>
       </c>
     </row>
     <row r="6">
@@ -1107,19 +1131,19 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>1.20600648558233</v>
+        <v>0.0189181008018912</v>
       </c>
       <c r="D6" t="n">
-        <v>1.12644621171655</v>
+        <v>0.0195666038766835</v>
       </c>
       <c r="E6" t="n">
-        <v>1.3459707220046</v>
+        <v>0.0192951481677316</v>
       </c>
       <c r="F6" t="n">
-        <v>1.28230092606611</v>
+        <v>0.019467546722365</v>
       </c>
     </row>
     <row r="7">
@@ -1127,19 +1151,19 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>0.250614308544646</v>
+        <v>0.0198732977166777</v>
       </c>
       <c r="D7" t="n">
-        <v>0.246217219333773</v>
+        <v>0.0204632360218947</v>
       </c>
       <c r="E7" t="n">
-        <v>0.256799805430227</v>
+        <v>0.0207619138562221</v>
       </c>
       <c r="F7" t="n">
-        <v>0.247459291741663</v>
+        <v>0.0207079991305405</v>
       </c>
     </row>
     <row r="8">
@@ -1147,19 +1171,19 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>0.221422313221864</v>
+        <v>0.0156125110479626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.288265379426773</v>
+        <v>0.0160023155802481</v>
       </c>
       <c r="E8" t="n">
-        <v>0.323765167598674</v>
+        <v>0.0162140225974927</v>
       </c>
       <c r="F8" t="n">
-        <v>0.298185637445686</v>
+        <v>0.0161642663657733</v>
       </c>
     </row>
     <row r="9">
@@ -1167,19 +1191,19 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0189181008018912</v>
+        <v>-0.00994813815041146</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0195666038766835</v>
+        <v>-0.00951118439501114</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0192951481677316</v>
+        <v>-0.00943267248917824</v>
       </c>
       <c r="F9" t="n">
-        <v>0.019467546722365</v>
+        <v>-0.0093321051262253</v>
       </c>
     </row>
     <row r="10">
@@ -1187,19 +1211,19 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0198732977166777</v>
+        <v>-1.2230934794501</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0204632360218947</v>
+        <v>-1.19997453350809</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0207619138562221</v>
+        <v>-1.21332951229831</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0207079991305405</v>
+        <v>-1.19863629083565</v>
       </c>
     </row>
     <row r="11">
@@ -1207,19 +1231,19 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0156125110479626</v>
+        <v>0.0562803914340658</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0160023155802481</v>
+        <v>0.06093463515116</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0162140225974927</v>
+        <v>0.0627095458187316</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0161642663657733</v>
+        <v>0.0628566536031399</v>
       </c>
     </row>
     <row r="12">
@@ -1227,19 +1251,19 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.00994813815041146</v>
+        <v>0.112388060955842</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.00951118439501114</v>
+        <v>0.0935972291445191</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.00943267248917824</v>
+        <v>0.115803723284304</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0093321051262253</v>
+        <v>0.0834022050807492</v>
       </c>
     </row>
     <row r="13">
@@ -1247,60 +1271,36 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-1.2230934794501</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-1.19997453350809</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-1.21332951229831</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-1.19863629083565</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0562803914340658</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.06093463515116</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.0627095458187316</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.0628566536031399</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.112388060955842</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.0935972291445191</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.115803723284304</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.0834022050807492</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1341,67 +1341,99 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>853.246409498641</v>
+      </c>
+      <c r="D2" t="n">
+        <v>796.957725460658</v>
+      </c>
+      <c r="E2" t="n">
+        <v>952.27073781961</v>
+      </c>
+      <c r="F2" t="n">
+        <v>907.224525027648</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+        <v>11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>177.308962672329</v>
+      </c>
+      <c r="D3" t="n">
+        <v>174.198033646429</v>
+      </c>
+      <c r="E3" t="n">
+        <v>181.685185413817</v>
+      </c>
+      <c r="F3" t="n">
+        <v>175.07679660089</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>355.487938980061</v>
+      </c>
+      <c r="D4" t="n">
+        <v>462.802795800664</v>
+      </c>
+      <c r="E4" t="n">
+        <v>519.796810305484</v>
+      </c>
+      <c r="F4" t="n">
+        <v>478.729519833034</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>52.1774956487162</v>
+      </c>
+      <c r="D5" t="n">
+        <v>53.9661142165891</v>
+      </c>
+      <c r="E5" t="n">
+        <v>53.2174196609899</v>
+      </c>
+      <c r="F5" t="n">
+        <v>53.6929073924712</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>853.246409498641</v>
+        <v>291.798949679391</v>
       </c>
       <c r="D6" t="n">
-        <v>796.957725460658</v>
+        <v>300.460993608491</v>
       </c>
       <c r="E6" t="n">
-        <v>952.27073781961</v>
+        <v>304.846470019692</v>
       </c>
       <c r="F6" t="n">
-        <v>907.224525027648</v>
+        <v>304.054841949182</v>
       </c>
     </row>
     <row r="7">
@@ -1409,19 +1441,19 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>177.308962672329</v>
+        <v>38.4480173160512</v>
       </c>
       <c r="D7" t="n">
-        <v>174.198033646429</v>
+        <v>39.4079661264088</v>
       </c>
       <c r="E7" t="n">
-        <v>181.685185413817</v>
+        <v>39.9293246087149</v>
       </c>
       <c r="F7" t="n">
-        <v>175.07679660089</v>
+        <v>39.8067928485865</v>
       </c>
     </row>
     <row r="8">
@@ -1429,19 +1461,19 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>355.487938980061</v>
+        <v>-18.3618374791824</v>
       </c>
       <c r="D8" t="n">
-        <v>462.802795800664</v>
+        <v>-17.5553273844018</v>
       </c>
       <c r="E8" t="n">
-        <v>519.796810305484</v>
+        <v>-17.4104135489395</v>
       </c>
       <c r="F8" t="n">
-        <v>478.729519833034</v>
+        <v>-17.2247907171763</v>
       </c>
     </row>
     <row r="9">
@@ -1449,19 +1481,19 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>52.1774956487162</v>
+        <v>-865.335412618526</v>
       </c>
       <c r="D9" t="n">
-        <v>53.9661142165891</v>
+        <v>-848.978819306433</v>
       </c>
       <c r="E9" t="n">
-        <v>53.2174196609899</v>
+        <v>-858.42743159659</v>
       </c>
       <c r="F9" t="n">
-        <v>53.6929073924712</v>
+        <v>-848.032016143306</v>
       </c>
     </row>
     <row r="10">
@@ -1469,19 +1501,19 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>291.798949679391</v>
+        <v>140.856891563231</v>
       </c>
       <c r="D10" t="n">
-        <v>300.460993608491</v>
+        <v>152.505394458518</v>
       </c>
       <c r="E10" t="n">
-        <v>304.846470019692</v>
+        <v>156.947588143852</v>
       </c>
       <c r="F10" t="n">
-        <v>304.054841949182</v>
+        <v>157.315765136025</v>
       </c>
     </row>
     <row r="11">
@@ -1489,19 +1521,19 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>38.4480173160512</v>
+        <v>265.371827630899</v>
       </c>
       <c r="D11" t="n">
-        <v>39.4079661264088</v>
+        <v>221.051398432685</v>
       </c>
       <c r="E11" t="n">
-        <v>39.9293246087149</v>
+        <v>273.44518093344</v>
       </c>
       <c r="F11" t="n">
-        <v>39.8067928485865</v>
+        <v>196.999117687755</v>
       </c>
     </row>
     <row r="12">
@@ -1509,60 +1541,36 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-18.3618374791824</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-17.5553273844018</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-17.4104135489395</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-17.2247907171763</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-865.335412618526</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-848.978819306433</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-858.42743159659</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-848.032016143306</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="n">
-        <v>140.856891563231</v>
-      </c>
-      <c r="D14" t="n">
-        <v>152.505394458518</v>
-      </c>
-      <c r="E14" t="n">
-        <v>156.947588143852</v>
-      </c>
-      <c r="F14" t="n">
-        <v>157.315765136025</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1571,18 +1579,10 @@
       <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="n">
-        <v>265.371827630899</v>
-      </c>
-      <c r="D15" t="n">
-        <v>221.051398432685</v>
-      </c>
-      <c r="E15" t="n">
-        <v>273.44518093344</v>
-      </c>
-      <c r="F15" t="n">
-        <v>196.999117687755</v>
-      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1623,67 +1623,99 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.33158419400106</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.97985946972784</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.95034629814853</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5.66887113054442</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+        <v>11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.107930431719</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.08849152188181</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.1352756390802</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.09398254842012</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.62894310288634</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.72445005767559</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.30626455308853</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.88703553243086</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.801497997199996</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.828972949419941</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.817472259719014</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.824776222083195</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>5.33158419400106</v>
+        <v>4.90783974804404</v>
       </c>
       <c r="D6" t="n">
-        <v>4.97985946972784</v>
+        <v>5.05352883822496</v>
       </c>
       <c r="E6" t="n">
-        <v>5.95034629814853</v>
+        <v>5.12728926631647</v>
       </c>
       <c r="F6" t="n">
-        <v>5.66887113054442</v>
+        <v>5.11397467517628</v>
       </c>
     </row>
     <row r="7">
@@ -1691,19 +1723,19 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>1.107930431719</v>
+        <v>0.507578559567043</v>
       </c>
       <c r="D7" t="n">
-        <v>1.08849152188181</v>
+        <v>0.520251500031415</v>
       </c>
       <c r="E7" t="n">
-        <v>1.1352756390802</v>
+        <v>0.527134309755818</v>
       </c>
       <c r="F7" t="n">
-        <v>1.09398254842012</v>
+        <v>0.525516684227929</v>
       </c>
     </row>
     <row r="8">
@@ -1711,19 +1743,19 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>3.62894310288634</v>
+        <v>-0.568806592954185</v>
       </c>
       <c r="D8" t="n">
-        <v>4.72445005767559</v>
+        <v>-0.543822804718644</v>
       </c>
       <c r="E8" t="n">
-        <v>5.30626455308853</v>
+        <v>-0.539333714500159</v>
       </c>
       <c r="F8" t="n">
-        <v>4.88703553243086</v>
+        <v>-0.533583555202132</v>
       </c>
     </row>
     <row r="9">
@@ -1731,19 +1763,19 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>0.801497997199996</v>
+        <v>-5.4071233785059</v>
       </c>
       <c r="D9" t="n">
-        <v>0.828972949419941</v>
+        <v>-5.30491778654601</v>
       </c>
       <c r="E9" t="n">
-        <v>0.817472259719014</v>
+        <v>-5.36395825994343</v>
       </c>
       <c r="F9" t="n">
-        <v>0.824776222083195</v>
+        <v>-5.29900160486255</v>
       </c>
     </row>
     <row r="10">
@@ -1751,19 +1783,19 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>4.90783974804404</v>
+        <v>1.33928910026321</v>
       </c>
       <c r="D10" t="n">
-        <v>5.05352883822496</v>
+        <v>1.45004486655129</v>
       </c>
       <c r="E10" t="n">
-        <v>5.12728926631647</v>
+        <v>1.49228193083689</v>
       </c>
       <c r="F10" t="n">
-        <v>5.11397467517628</v>
+        <v>1.49578261459551</v>
       </c>
     </row>
     <row r="11">
@@ -1771,19 +1803,19 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>0.507578559567043</v>
+        <v>2.21594940843267</v>
       </c>
       <c r="D11" t="n">
-        <v>0.520251500031415</v>
+        <v>1.84626091703381</v>
       </c>
       <c r="E11" t="n">
-        <v>0.527134309755818</v>
+        <v>2.28345001375661</v>
       </c>
       <c r="F11" t="n">
-        <v>0.525516684227929</v>
+        <v>1.64565453653218</v>
       </c>
     </row>
     <row r="12">
@@ -1791,60 +1823,36 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-0.568806592954185</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-0.543822804718644</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-0.539333714500159</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.533583555202132</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-5.4071233785059</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-5.30491778654601</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-5.36395825994343</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-5.29900160486255</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.33928910026321</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.45004486655129</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.49228193083689</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.49578261459551</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1853,18 +1861,10 @@
       <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="n">
-        <v>2.21594940843267</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.84626091703381</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2.28345001375661</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.64565453653218</v>
-      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1945,12 +1945,20 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
+        <v>20</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1463.22642406803</v>
+      </c>
+      <c r="D4" t="n">
+        <v>729.775871428571</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1102.52385057134</v>
+      </c>
+      <c r="F4" t="n">
+        <v>550.874867565582</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1960,16 +1968,16 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>1463.22642406803</v>
+        <v>1.03162823545945</v>
       </c>
       <c r="D5" t="n">
-        <v>729.775871428571</v>
+        <v>0.963571698515382</v>
       </c>
       <c r="E5" t="n">
-        <v>1102.52385057134</v>
+        <v>1.15135483724304</v>
       </c>
       <c r="F5" t="n">
-        <v>550.874867565582</v>
+        <v>1.09689115066977</v>
       </c>
     </row>
     <row r="6">
@@ -1980,16 +1988,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>1.03162823545945</v>
+        <v>0.21437761736411</v>
       </c>
       <c r="D6" t="n">
-        <v>0.963571698515382</v>
+        <v>0.210616309744293</v>
       </c>
       <c r="E6" t="n">
-        <v>1.15135483724304</v>
+        <v>0.219668744164669</v>
       </c>
       <c r="F6" t="n">
-        <v>1.09689115066977</v>
+        <v>0.21167878907735</v>
       </c>
     </row>
     <row r="7">
@@ -2000,16 +2008,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>0.21437761736411</v>
+        <v>0.250684691925246</v>
       </c>
       <c r="D7" t="n">
-        <v>0.210616309744293</v>
+        <v>0.326361498002718</v>
       </c>
       <c r="E7" t="n">
-        <v>0.219668744164669</v>
+        <v>0.366552810846458</v>
       </c>
       <c r="F7" t="n">
-        <v>0.21167878907735</v>
+        <v>0.337592781738781</v>
       </c>
     </row>
     <row r="8">
@@ -2020,16 +2028,16 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>0.250684691925246</v>
+        <v>2.97253599769531</v>
       </c>
       <c r="D8" t="n">
-        <v>0.326361498002718</v>
+        <v>3.07443305145472</v>
       </c>
       <c r="E8" t="n">
-        <v>0.366552810846458</v>
+        <v>3.03178015119326</v>
       </c>
       <c r="F8" t="n">
-        <v>0.337592781738781</v>
+        <v>3.05886854209279</v>
       </c>
     </row>
     <row r="9">
@@ -2040,16 +2048,16 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>2.97253599769531</v>
+        <v>0.174113299842438</v>
       </c>
       <c r="D9" t="n">
-        <v>3.07443305145472</v>
+        <v>0.17928184843911</v>
       </c>
       <c r="E9" t="n">
-        <v>3.03178015119326</v>
+        <v>0.181898615121014</v>
       </c>
       <c r="F9" t="n">
-        <v>3.05886854209279</v>
+        <v>0.181426259152098</v>
       </c>
     </row>
     <row r="10">
@@ -2060,16 +2068,16 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>0.174113299842438</v>
+        <v>0.2499161585221</v>
       </c>
       <c r="D10" t="n">
-        <v>0.17928184843911</v>
+        <v>0.256155926806908</v>
       </c>
       <c r="E10" t="n">
-        <v>0.181898615121014</v>
+        <v>0.259544811805574</v>
       </c>
       <c r="F10" t="n">
-        <v>0.181426259152098</v>
+        <v>0.258748342470459</v>
       </c>
     </row>
     <row r="11">
@@ -2080,16 +2088,16 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2499161585221</v>
+        <v>-0.0432044191122858</v>
       </c>
       <c r="D11" t="n">
-        <v>0.256155926806908</v>
+        <v>-0.0413067441005833</v>
       </c>
       <c r="E11" t="n">
-        <v>0.259544811805574</v>
+        <v>-0.0409657696153456</v>
       </c>
       <c r="F11" t="n">
-        <v>0.258748342470459</v>
+        <v>-0.0405290090444385</v>
       </c>
     </row>
     <row r="12">
@@ -2100,16 +2108,16 @@
         <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0432044191122858</v>
+        <v>-1.04624459577248</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0413067441005833</v>
+        <v>-1.02646845220031</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0409657696153456</v>
+        <v>-1.03789241498049</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0405290090444385</v>
+        <v>-1.02532370800259</v>
       </c>
     </row>
     <row r="13">
@@ -2120,16 +2128,16 @@
         <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.04624459577248</v>
+        <v>0.179948167420804</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.02646845220031</v>
+        <v>0.194829418355281</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.03789241498049</v>
+        <v>0.200504430803254</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.02532370800259</v>
+        <v>0.200974786028993</v>
       </c>
     </row>
     <row r="14">
@@ -2140,16 +2148,16 @@
         <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>0.179948167420804</v>
+        <v>0.205760248633558</v>
       </c>
       <c r="D14" t="n">
-        <v>0.194829418355281</v>
+        <v>0.171330932017508</v>
       </c>
       <c r="E14" t="n">
-        <v>0.200504430803254</v>
+        <v>0.212044854319435</v>
       </c>
       <c r="F14" t="n">
-        <v>0.200974786028993</v>
+        <v>0.152804280607527</v>
       </c>
     </row>
     <row r="15">
@@ -2157,20 +2165,12 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.205760248633558</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.171330932017508</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.212044854319435</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.152804280607527</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2251,43 +2251,59 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>53.0564401049379</v>
+      </c>
+      <c r="D4" t="n">
+        <v>49.5563056068603</v>
+      </c>
+      <c r="E4" t="n">
+        <v>59.2139560182838</v>
+      </c>
+      <c r="F4" t="n">
+        <v>56.4128991789643</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11.0253992907169</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.8319559691911</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11.2975209160585</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.8865990752631</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>53.0564401049379</v>
+        <v>8.4995042641492</v>
       </c>
       <c r="D6" t="n">
-        <v>49.5563056068603</v>
+        <v>11.0653383843454</v>
       </c>
       <c r="E6" t="n">
-        <v>59.2139560182838</v>
+        <v>12.4280312247961</v>
       </c>
       <c r="F6" t="n">
-        <v>56.4128991789643</v>
+        <v>11.4461368418555</v>
       </c>
     </row>
     <row r="7">
@@ -2295,19 +2311,19 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>11.0253992907169</v>
+        <v>4.70376451998343</v>
       </c>
       <c r="D7" t="n">
-        <v>10.8319559691911</v>
+        <v>4.86500722538245</v>
       </c>
       <c r="E7" t="n">
-        <v>11.2975209160585</v>
+        <v>4.79751293798618</v>
       </c>
       <c r="F7" t="n">
-        <v>10.8865990752631</v>
+        <v>4.84037782242</v>
       </c>
     </row>
     <row r="8">
@@ -2315,19 +2331,19 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>8.4995042641492</v>
+        <v>4.34108178135943</v>
       </c>
       <c r="D8" t="n">
-        <v>11.0653383843454</v>
+        <v>4.46994667662813</v>
       </c>
       <c r="E8" t="n">
-        <v>12.4280312247961</v>
+        <v>4.5351892409765</v>
       </c>
       <c r="F8" t="n">
-        <v>11.4461368418555</v>
+        <v>4.52341222053732</v>
       </c>
     </row>
     <row r="9">
@@ -2335,19 +2351,19 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>4.70376451998343</v>
+        <v>5.82223427785777</v>
       </c>
       <c r="D9" t="n">
-        <v>4.86500722538245</v>
+        <v>5.96760059994167</v>
       </c>
       <c r="E9" t="n">
-        <v>4.79751293798618</v>
+        <v>6.04655060669449</v>
       </c>
       <c r="F9" t="n">
-        <v>4.84037782242</v>
+        <v>6.02799545967399</v>
       </c>
     </row>
     <row r="10">
@@ -2355,19 +2371,19 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>4.34108178135943</v>
+        <v>-1.66469304131352</v>
       </c>
       <c r="D10" t="n">
-        <v>4.46994667662813</v>
+        <v>-1.59157444716124</v>
       </c>
       <c r="E10" t="n">
-        <v>4.5351892409765</v>
+        <v>-1.57843648894995</v>
       </c>
       <c r="F10" t="n">
-        <v>4.52341222053732</v>
+        <v>-1.56160783350108</v>
       </c>
     </row>
     <row r="11">
@@ -2375,19 +2391,19 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="n">
-        <v>5.82223427785777</v>
+        <v>-53.8081566815543</v>
       </c>
       <c r="D11" t="n">
-        <v>5.96760059994167</v>
+        <v>-52.7910734524625</v>
       </c>
       <c r="E11" t="n">
-        <v>6.04655060669449</v>
+        <v>-53.3786056430076</v>
       </c>
       <c r="F11" t="n">
-        <v>6.02799545967399</v>
+        <v>-52.7321994803527</v>
       </c>
     </row>
     <row r="12">
@@ -2395,19 +2411,19 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.66469304131352</v>
+        <v>5.78777687884609</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.59157444716124</v>
+        <v>6.26641115071094</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.57843648894995</v>
+        <v>6.4489398549724</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.56160783350108</v>
+        <v>6.46406816185872</v>
       </c>
     </row>
     <row r="13">
@@ -2415,19 +2431,19 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="n">
-        <v>-53.8081566815543</v>
+        <v>6.7076089286484</v>
       </c>
       <c r="D13" t="n">
-        <v>-52.7910734524625</v>
+        <v>5.58662189842095</v>
       </c>
       <c r="E13" t="n">
-        <v>-53.3786056430076</v>
+        <v>6.91214242659219</v>
       </c>
       <c r="F13" t="n">
-        <v>-52.7321994803527</v>
+        <v>4.98084669018336</v>
       </c>
     </row>
     <row r="14">
@@ -2435,20 +2451,12 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5.78777687884609</v>
-      </c>
-      <c r="D14" t="n">
-        <v>6.26641115071094</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6.4489398549724</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6.46406816185872</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2457,18 +2465,10 @@
       <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="n">
-        <v>6.7076089286484</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5.58662189842095</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6.91214242659219</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4.98084669018336</v>
-      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2509,67 +2509,99 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>145349.73968435</v>
+      </c>
+      <c r="D2" t="n">
+        <v>135761.014222378</v>
+      </c>
+      <c r="E2" t="n">
+        <v>162218.442773681</v>
+      </c>
+      <c r="F2" t="n">
+        <v>154544.861929755</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+        <v>11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>30204.4184203111</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29674.4745271317</v>
+      </c>
+      <c r="E3" t="n">
+        <v>30949.9039321104</v>
+      </c>
+      <c r="F3" t="n">
+        <v>29824.1709867397</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>17733.7379534429</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23087.2066388447</v>
+      </c>
+      <c r="E4" t="n">
+        <v>25930.3886636499</v>
+      </c>
+      <c r="F4" t="n">
+        <v>23881.7212186001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>21443.1405254871</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22178.2007046036</v>
+      </c>
+      <c r="E5" t="n">
+        <v>21870.5132166017</v>
+      </c>
+      <c r="F5" t="n">
+        <v>22065.922178215</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>145349.73968435</v>
+        <v>22136.6428747237</v>
       </c>
       <c r="D6" t="n">
-        <v>135761.014222378</v>
+        <v>22793.7685197418</v>
       </c>
       <c r="E6" t="n">
-        <v>162218.442773681</v>
+        <v>23126.4624011178</v>
       </c>
       <c r="F6" t="n">
-        <v>154544.861929755</v>
+        <v>23066.4073943889</v>
       </c>
     </row>
     <row r="7">
@@ -2577,19 +2609,19 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>30204.4184203111</v>
+        <v>5686.85034077449</v>
       </c>
       <c r="D7" t="n">
-        <v>29674.4745271317</v>
+        <v>5828.83647166996</v>
       </c>
       <c r="E7" t="n">
-        <v>30949.9039321104</v>
+        <v>5905.95066037821</v>
       </c>
       <c r="F7" t="n">
-        <v>29824.1709867397</v>
+        <v>5887.82697467256</v>
       </c>
     </row>
     <row r="8">
@@ -2597,19 +2629,19 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>17733.7379534429</v>
+        <v>-22324.0868203375</v>
       </c>
       <c r="D8" t="n">
-        <v>23087.2066388447</v>
+        <v>-21343.5421772551</v>
       </c>
       <c r="E8" t="n">
-        <v>25930.3886636499</v>
+        <v>-21167.357792223</v>
       </c>
       <c r="F8" t="n">
-        <v>23881.7212186001</v>
+        <v>-20941.6799309077</v>
       </c>
     </row>
     <row r="9">
@@ -2617,19 +2649,19 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>21443.1405254871</v>
+        <v>-147409.090227121</v>
       </c>
       <c r="D9" t="n">
-        <v>22178.2007046036</v>
+        <v>-144622.759627227</v>
       </c>
       <c r="E9" t="n">
-        <v>21870.5132166017</v>
+        <v>-146232.322024987</v>
       </c>
       <c r="F9" t="n">
-        <v>22065.922178215</v>
+        <v>-144461.472580765</v>
       </c>
     </row>
     <row r="10">
@@ -2637,19 +2669,19 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>22136.6428747237</v>
+        <v>15000.3282365177</v>
       </c>
       <c r="D10" t="n">
-        <v>22793.7685197418</v>
+        <v>16240.8168271302</v>
       </c>
       <c r="E10" t="n">
-        <v>23126.4624011178</v>
+        <v>16713.8811027272</v>
       </c>
       <c r="F10" t="n">
-        <v>23066.4073943889</v>
+        <v>16753.0895196561</v>
       </c>
     </row>
     <row r="11">
@@ -2657,19 +2689,19 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>5686.85034077449</v>
+        <v>16603.6281139314</v>
       </c>
       <c r="D11" t="n">
-        <v>5828.83647166996</v>
+        <v>13830.5584936628</v>
       </c>
       <c r="E11" t="n">
-        <v>5905.95066037821</v>
+        <v>17109.839639665</v>
       </c>
       <c r="F11" t="n">
-        <v>5887.82697467256</v>
+        <v>12330.2141683686</v>
       </c>
     </row>
     <row r="12">
@@ -2677,60 +2709,36 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-22324.0868203375</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-21343.5421772551</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-21167.357792223</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-20941.6799309077</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-147409.090227121</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-144622.759627227</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-146232.322024987</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-144461.472580765</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="n">
-        <v>15000.3282365177</v>
-      </c>
-      <c r="D14" t="n">
-        <v>16240.8168271302</v>
-      </c>
-      <c r="E14" t="n">
-        <v>16713.8811027272</v>
-      </c>
-      <c r="F14" t="n">
-        <v>16753.0895196561</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2739,18 +2747,10 @@
       <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="n">
-        <v>16603.6281139314</v>
-      </c>
-      <c r="D15" t="n">
-        <v>13830.5584936628</v>
-      </c>
-      <c r="E15" t="n">
-        <v>17109.839639665</v>
-      </c>
-      <c r="F15" t="n">
-        <v>12330.2141683686</v>
-      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2791,67 +2791,99 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>103170.352660012</v>
+      </c>
+      <c r="D2" t="n">
+        <v>96364.2022697874</v>
+      </c>
+      <c r="E2" t="n">
+        <v>115143.886636906</v>
+      </c>
+      <c r="F2" t="n">
+        <v>109697.120488221</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+        <v>11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>21439.3263247763</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21063.1681117098</v>
+      </c>
+      <c r="E3" t="n">
+        <v>21968.4776209691</v>
+      </c>
+      <c r="F3" t="n">
+        <v>21169.4237992896</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2130.77326789233</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2774.01204785515</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3115.63073366815</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2869.47587121479</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>620.363900738212</v>
+      </c>
+      <c r="D5" t="n">
+        <v>641.629666331271</v>
+      </c>
+      <c r="E5" t="n">
+        <v>632.72806863674</v>
+      </c>
+      <c r="F5" t="n">
+        <v>638.381376067223</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>103170.352660012</v>
+        <v>557.477888595809</v>
       </c>
       <c r="D6" t="n">
-        <v>96364.2022697874</v>
+        <v>574.026604640964</v>
       </c>
       <c r="E6" t="n">
-        <v>115143.886636906</v>
+        <v>582.404997136514</v>
       </c>
       <c r="F6" t="n">
-        <v>109697.120488221</v>
+        <v>580.892602572427</v>
       </c>
     </row>
     <row r="7">
@@ -2859,19 +2891,19 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>21439.3263247763</v>
+        <v>364.628033289503</v>
       </c>
       <c r="D7" t="n">
-        <v>21063.1681117098</v>
+        <v>373.731864155528</v>
       </c>
       <c r="E7" t="n">
-        <v>21968.4776209691</v>
+        <v>378.676252223172</v>
       </c>
       <c r="F7" t="n">
-        <v>21169.4237992896</v>
+        <v>377.514202322293</v>
       </c>
     </row>
     <row r="8">
@@ -2879,19 +2911,19 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>2130.77326789233</v>
+        <v>-332.429077323972</v>
       </c>
       <c r="D8" t="n">
-        <v>2774.01204785515</v>
+        <v>-317.827738707161</v>
       </c>
       <c r="E8" t="n">
-        <v>3115.63073366815</v>
+        <v>-315.20416834451</v>
       </c>
       <c r="F8" t="n">
-        <v>2869.47587121479</v>
+        <v>-311.843588186708</v>
       </c>
     </row>
     <row r="9">
@@ -2899,19 +2931,19 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>620.363900738212</v>
+        <v>-104632.095365638</v>
       </c>
       <c r="D9" t="n">
-        <v>641.629666331271</v>
+        <v>-102654.336676543</v>
       </c>
       <c r="E9" t="n">
-        <v>632.72806863674</v>
+        <v>-103796.816329866</v>
       </c>
       <c r="F9" t="n">
-        <v>638.381376067223</v>
+        <v>-102539.853902104</v>
       </c>
     </row>
     <row r="10">
@@ -2919,19 +2951,19 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>557.477888595809</v>
+        <v>773.290503532482</v>
       </c>
       <c r="D10" t="n">
-        <v>574.026604640964</v>
+        <v>837.23964062708</v>
       </c>
       <c r="E10" t="n">
-        <v>582.404997136514</v>
+        <v>861.62684776759</v>
       </c>
       <c r="F10" t="n">
-        <v>580.892602572427</v>
+        <v>863.648103302245</v>
       </c>
     </row>
     <row r="11">
@@ -2939,19 +2971,19 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>364.628033289503</v>
+        <v>800.819223361055</v>
       </c>
       <c r="D11" t="n">
-        <v>373.731864155528</v>
+        <v>667.160451433038</v>
       </c>
       <c r="E11" t="n">
-        <v>378.676252223172</v>
+        <v>825.203964492176</v>
       </c>
       <c r="F11" t="n">
-        <v>377.514202322293</v>
+        <v>594.641800021455</v>
       </c>
     </row>
     <row r="12">
@@ -2959,60 +2991,36 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-332.429077323972</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-317.827738707161</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-315.20416834451</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-311.843588186708</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-104632.095365638</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-102654.336676543</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-103796.816329866</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-102539.853902104</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="n">
-        <v>773.290503532482</v>
-      </c>
-      <c r="D14" t="n">
-        <v>837.23964062708</v>
-      </c>
-      <c r="E14" t="n">
-        <v>861.62684776759</v>
-      </c>
-      <c r="F14" t="n">
-        <v>863.648103302245</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -3021,18 +3029,10 @@
       <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="n">
-        <v>800.819223361055</v>
-      </c>
-      <c r="D15" t="n">
-        <v>667.160451433038</v>
-      </c>
-      <c r="E15" t="n">
-        <v>825.203964492176</v>
-      </c>
-      <c r="F15" t="n">
-        <v>594.641800021455</v>
-      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
